--- a/data/inflation_realwage_switzerland.xlsx
+++ b/data/inflation_realwage_switzerland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\OneDrive\Bureau\master-thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108CEFC3-467A-486A-8B0D-8E77D001F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6417582E-00FA-4A61-ADA3-A7C457855907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2010-2022" sheetId="4" r:id="rId1"/>
@@ -1132,6 +1132,1632 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$10:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>consumer_price_index_rate</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>              12.83) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$14:$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>  1942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>  1943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>  1944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>  1945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>  1946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>  1947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>  1948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>  1949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>  1950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>  1951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>  1952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>  1953</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>  1954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>  1955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>  1956</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>  1957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>  1958</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>  1959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>  1960</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>  1961</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>  1962</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>  1963</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>  1964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>  1965</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>  1966</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>  1967</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>  1968</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>  1969</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>  1970</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>  1971</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>  1972</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>  1973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>  1974</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>  1975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>  1976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>  1977</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>  1978</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>  1979</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>  1980</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>  1981</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>  1982</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>  1983</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>  1984</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>  1985</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>  1986</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>  1987</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>  1988</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>  1989</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>  1990</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>  1991</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>  1992</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>  1993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>  1994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>  1995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>  1996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>  1997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>  1998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>  1999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>  2000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>  2001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>  2002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>  2003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>  2004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>  2005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>  2006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>  2007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>  2008</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>  2009</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>  2010</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>  2011</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>  2012</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>  2013</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>  2014</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>  2015</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>  2016</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>  2017</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>  2018</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>  2019</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>  2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>  2021</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>  2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$14:$B$94</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90E9-464B-A354-ED7130479B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$10:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>real_wage_total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 100  </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-   </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-   </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$14:$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>  1942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>  1943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>  1944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>  1945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>  1946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>  1947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>  1948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>  1949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>  1950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>  1951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>  1952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>  1953</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>  1954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>  1955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>  1956</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>  1957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>  1958</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>  1959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>  1960</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>  1961</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>  1962</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>  1963</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>  1964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>  1965</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>  1966</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>  1967</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>  1968</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>  1969</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>  1970</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>  1971</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>  1972</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>  1973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>  1974</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>  1975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>  1976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>  1977</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>  1978</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>  1979</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>  1980</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>  1981</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>  1982</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>  1983</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>  1984</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>  1985</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>  1986</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>  1987</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>  1988</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>  1989</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>  1990</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>  1991</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>  1992</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>  1993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>  1994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>  1995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>  1996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>  1997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>  1998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>  1999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>  2000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>  2001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>  2002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>  2003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>  2004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>  2005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>  2006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>  2007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>  2008</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>  2009</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>  2010</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>  2011</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>  2012</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>  2013</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>  2014</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>  2015</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>  2016</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>  2017</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>  2018</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>  2019</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>  2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>  2021</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>  2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$14:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0\ \ </c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-90E9-464B-A354-ED7130479B65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1576826784"/>
+        <c:axId val="1569290672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1576826784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569290672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1569290672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0\ \ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1576826784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1447,8 +3073,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>22210</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Encre 19">
@@ -1467,7 +3093,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Encre 19">
@@ -1497,6 +3123,42 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536574</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>107949</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2BCA7B-E611-6334-E238-27F61A588741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17361,7 +19023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FP459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -25864,8 +27526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D3DE55-2BFC-49E1-AE58-445657A61B2A}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
